--- a/documents/Document3_GanttChart.xlsx
+++ b/documents/Document3_GanttChart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skim1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzhu7\Documents\GitHub\SoftwareEngineering\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1023,24 +1023,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1064,6 +1046,24 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1671,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,8 +1727,8 @@
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
@@ -1757,14 +1757,14 @@
       <c r="AE2" s="37"/>
     </row>
     <row r="3" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="65"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
@@ -1860,14 +1860,14 @@
       <c r="CU3" s="6"/>
     </row>
     <row r="4" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="66">
+      <c r="C4" s="72"/>
+      <c r="D4" s="75">
         <v>42756</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="75"/>
       <c r="I4" s="7">
         <f>D4-WEEKDAY(D4,1)+2+7*(D5-1)</f>
         <v>42751</v>
@@ -2234,277 +2234,277 @@
       </c>
     </row>
     <row r="5" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="64"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="I5" s="68" t="str">
+      <c r="I5" s="63" t="str">
         <f>"Week "&amp;(I4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68" t="str">
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63" t="str">
         <f>"Week "&amp;(P4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68" t="str">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63" t="str">
         <f>"Week "&amp;(W4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68" t="str">
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63" t="str">
         <f>"Week "&amp;(AD4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="68" t="str">
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63" t="str">
         <f>"Week "&amp;(AK4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="68"/>
-      <c r="AN5" s="68"/>
-      <c r="AO5" s="68"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="68"/>
-      <c r="AR5" s="68" t="str">
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="63"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="63" t="str">
         <f>"Week "&amp;(AR4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="68"/>
-      <c r="AV5" s="68"/>
-      <c r="AW5" s="68"/>
-      <c r="AX5" s="68"/>
-      <c r="AY5" s="68" t="str">
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="63"/>
+      <c r="AU5" s="63"/>
+      <c r="AV5" s="63"/>
+      <c r="AW5" s="63"/>
+      <c r="AX5" s="63"/>
+      <c r="AY5" s="63" t="str">
         <f>"Week "&amp;(AY4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AZ5" s="68"/>
-      <c r="BA5" s="68"/>
-      <c r="BB5" s="68"/>
-      <c r="BC5" s="68"/>
-      <c r="BD5" s="68"/>
-      <c r="BE5" s="68"/>
-      <c r="BF5" s="68" t="str">
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="63"/>
+      <c r="BB5" s="63"/>
+      <c r="BC5" s="63"/>
+      <c r="BD5" s="63"/>
+      <c r="BE5" s="63"/>
+      <c r="BF5" s="63" t="str">
         <f>"Week "&amp;(BF4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BG5" s="68"/>
-      <c r="BH5" s="68"/>
-      <c r="BI5" s="68"/>
-      <c r="BJ5" s="68"/>
-      <c r="BK5" s="68"/>
-      <c r="BL5" s="68"/>
-      <c r="BM5" s="68" t="str">
+      <c r="BG5" s="63"/>
+      <c r="BH5" s="63"/>
+      <c r="BI5" s="63"/>
+      <c r="BJ5" s="63"/>
+      <c r="BK5" s="63"/>
+      <c r="BL5" s="63"/>
+      <c r="BM5" s="63" t="str">
         <f>"Week "&amp;(BM4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BN5" s="68"/>
-      <c r="BO5" s="68"/>
-      <c r="BP5" s="68"/>
-      <c r="BQ5" s="68"/>
-      <c r="BR5" s="68"/>
-      <c r="BS5" s="68"/>
-      <c r="BT5" s="68" t="str">
+      <c r="BN5" s="63"/>
+      <c r="BO5" s="63"/>
+      <c r="BP5" s="63"/>
+      <c r="BQ5" s="63"/>
+      <c r="BR5" s="63"/>
+      <c r="BS5" s="63"/>
+      <c r="BT5" s="63" t="str">
         <f>"Week "&amp;(BT4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BU5" s="68"/>
-      <c r="BV5" s="68"/>
-      <c r="BW5" s="68"/>
-      <c r="BX5" s="68"/>
-      <c r="BY5" s="68"/>
-      <c r="BZ5" s="68"/>
-      <c r="CA5" s="68" t="str">
+      <c r="BU5" s="63"/>
+      <c r="BV5" s="63"/>
+      <c r="BW5" s="63"/>
+      <c r="BX5" s="63"/>
+      <c r="BY5" s="63"/>
+      <c r="BZ5" s="63"/>
+      <c r="CA5" s="63" t="str">
         <f>"Week "&amp;(CA4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CB5" s="68"/>
-      <c r="CC5" s="68"/>
-      <c r="CD5" s="68"/>
-      <c r="CE5" s="68"/>
-      <c r="CF5" s="68"/>
-      <c r="CG5" s="68"/>
-      <c r="CH5" s="68" t="str">
+      <c r="CB5" s="63"/>
+      <c r="CC5" s="63"/>
+      <c r="CD5" s="63"/>
+      <c r="CE5" s="63"/>
+      <c r="CF5" s="63"/>
+      <c r="CG5" s="63"/>
+      <c r="CH5" s="63" t="str">
         <f>"Week "&amp;(CH4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CI5" s="68"/>
-      <c r="CJ5" s="68"/>
-      <c r="CK5" s="68"/>
-      <c r="CL5" s="68"/>
-      <c r="CM5" s="68"/>
-      <c r="CN5" s="68"/>
-      <c r="CO5" s="70" t="str">
+      <c r="CI5" s="63"/>
+      <c r="CJ5" s="63"/>
+      <c r="CK5" s="63"/>
+      <c r="CL5" s="63"/>
+      <c r="CM5" s="63"/>
+      <c r="CN5" s="63"/>
+      <c r="CO5" s="65" t="str">
         <f>"Week "&amp;(CO4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CP5" s="71"/>
-      <c r="CQ5" s="71"/>
-      <c r="CR5" s="71"/>
-      <c r="CS5" s="71"/>
-      <c r="CT5" s="71"/>
-      <c r="CU5" s="72"/>
+      <c r="CP5" s="66"/>
+      <c r="CQ5" s="66"/>
+      <c r="CR5" s="66"/>
+      <c r="CS5" s="66"/>
+      <c r="CT5" s="66"/>
+      <c r="CU5" s="67"/>
     </row>
     <row r="6" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B6" s="51"/>
-      <c r="I6" s="69">
+      <c r="I6" s="64">
         <f>I4</f>
         <v>42751</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69">
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64">
         <f>P4</f>
         <v>42758</v>
       </c>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69">
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64">
         <f>W4</f>
         <v>42765</v>
       </c>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69">
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64">
         <f>AD4</f>
         <v>42772</v>
       </c>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="69"/>
-      <c r="AH6" s="69"/>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="69">
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64">
         <f>AK4</f>
         <v>42779</v>
       </c>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="69"/>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="69"/>
-      <c r="AQ6" s="69"/>
-      <c r="AR6" s="69">
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64">
         <f>AR4</f>
         <v>42786</v>
       </c>
-      <c r="AS6" s="69"/>
-      <c r="AT6" s="69"/>
-      <c r="AU6" s="69"/>
-      <c r="AV6" s="69"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="69">
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64"/>
+      <c r="AW6" s="64"/>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="64">
         <f>AY4</f>
         <v>42793</v>
       </c>
-      <c r="AZ6" s="69"/>
-      <c r="BA6" s="69"/>
-      <c r="BB6" s="69"/>
-      <c r="BC6" s="69"/>
-      <c r="BD6" s="69"/>
-      <c r="BE6" s="69"/>
-      <c r="BF6" s="69">
+      <c r="AZ6" s="64"/>
+      <c r="BA6" s="64"/>
+      <c r="BB6" s="64"/>
+      <c r="BC6" s="64"/>
+      <c r="BD6" s="64"/>
+      <c r="BE6" s="64"/>
+      <c r="BF6" s="64">
         <f>BF4</f>
         <v>42800</v>
       </c>
-      <c r="BG6" s="69"/>
-      <c r="BH6" s="69"/>
-      <c r="BI6" s="69"/>
-      <c r="BJ6" s="69"/>
-      <c r="BK6" s="69"/>
-      <c r="BL6" s="69"/>
-      <c r="BM6" s="69">
+      <c r="BG6" s="64"/>
+      <c r="BH6" s="64"/>
+      <c r="BI6" s="64"/>
+      <c r="BJ6" s="64"/>
+      <c r="BK6" s="64"/>
+      <c r="BL6" s="64"/>
+      <c r="BM6" s="64">
         <f>BM4</f>
         <v>42807</v>
       </c>
-      <c r="BN6" s="69"/>
-      <c r="BO6" s="69"/>
-      <c r="BP6" s="69"/>
-      <c r="BQ6" s="69"/>
-      <c r="BR6" s="69"/>
-      <c r="BS6" s="69"/>
-      <c r="BT6" s="69">
+      <c r="BN6" s="64"/>
+      <c r="BO6" s="64"/>
+      <c r="BP6" s="64"/>
+      <c r="BQ6" s="64"/>
+      <c r="BR6" s="64"/>
+      <c r="BS6" s="64"/>
+      <c r="BT6" s="64">
         <f>BT4</f>
         <v>42814</v>
       </c>
-      <c r="BU6" s="69"/>
-      <c r="BV6" s="69"/>
-      <c r="BW6" s="69"/>
-      <c r="BX6" s="69"/>
-      <c r="BY6" s="69"/>
-      <c r="BZ6" s="69"/>
-      <c r="CA6" s="69">
+      <c r="BU6" s="64"/>
+      <c r="BV6" s="64"/>
+      <c r="BW6" s="64"/>
+      <c r="BX6" s="64"/>
+      <c r="BY6" s="64"/>
+      <c r="BZ6" s="64"/>
+      <c r="CA6" s="64">
         <f>CA4</f>
         <v>42821</v>
       </c>
-      <c r="CB6" s="69"/>
-      <c r="CC6" s="69"/>
-      <c r="CD6" s="69"/>
-      <c r="CE6" s="69"/>
-      <c r="CF6" s="69"/>
-      <c r="CG6" s="69"/>
-      <c r="CH6" s="69">
+      <c r="CB6" s="64"/>
+      <c r="CC6" s="64"/>
+      <c r="CD6" s="64"/>
+      <c r="CE6" s="64"/>
+      <c r="CF6" s="64"/>
+      <c r="CG6" s="64"/>
+      <c r="CH6" s="64">
         <f>CH4</f>
         <v>42828</v>
       </c>
-      <c r="CI6" s="69"/>
-      <c r="CJ6" s="69"/>
-      <c r="CK6" s="69"/>
-      <c r="CL6" s="69"/>
-      <c r="CM6" s="69"/>
-      <c r="CN6" s="69"/>
-      <c r="CO6" s="73">
+      <c r="CI6" s="64"/>
+      <c r="CJ6" s="64"/>
+      <c r="CK6" s="64"/>
+      <c r="CL6" s="64"/>
+      <c r="CM6" s="64"/>
+      <c r="CN6" s="64"/>
+      <c r="CO6" s="68">
         <f>CO4</f>
         <v>42835</v>
       </c>
-      <c r="CP6" s="74"/>
-      <c r="CQ6" s="74"/>
-      <c r="CR6" s="74"/>
-      <c r="CS6" s="74"/>
-      <c r="CT6" s="74"/>
-      <c r="CU6" s="75"/>
+      <c r="CP6" s="69"/>
+      <c r="CQ6" s="69"/>
+      <c r="CR6" s="69"/>
+      <c r="CS6" s="69"/>
+      <c r="CT6" s="69"/>
+      <c r="CU6" s="70"/>
     </row>
     <row r="7" spans="1:99" s="15" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
@@ -9417,16 +9417,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="CH5:CN5"/>
-    <mergeCell ref="CH6:CN6"/>
-    <mergeCell ref="CO5:CU5"/>
-    <mergeCell ref="CO6:CU6"/>
-    <mergeCell ref="BM5:BS5"/>
-    <mergeCell ref="BM6:BS6"/>
-    <mergeCell ref="BT5:BZ5"/>
-    <mergeCell ref="BT6:BZ6"/>
-    <mergeCell ref="CA5:CG5"/>
-    <mergeCell ref="CA6:CG6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
     <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
@@ -9439,16 +9439,16 @@
     <mergeCell ref="AY6:BE6"/>
     <mergeCell ref="AK5:AQ5"/>
     <mergeCell ref="BF6:BL6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="CH5:CN5"/>
+    <mergeCell ref="CH6:CN6"/>
+    <mergeCell ref="CO5:CU5"/>
+    <mergeCell ref="CO6:CU6"/>
+    <mergeCell ref="BM5:BS5"/>
+    <mergeCell ref="BM6:BS6"/>
+    <mergeCell ref="BT5:BZ5"/>
+    <mergeCell ref="BT6:BZ6"/>
+    <mergeCell ref="CA5:CG5"/>
+    <mergeCell ref="CA6:CG6"/>
   </mergeCells>
   <conditionalFormatting sqref="G42:G44 G49:G52 G8:G36">
     <cfRule type="dataBar" priority="41">

--- a/documents/Document3_GanttChart.xlsx
+++ b/documents/Document3_GanttChart.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzhu7\Documents\GitHub\SoftwareEngineering\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460"/>
   </bookViews>
   <sheets>
     <sheet name="Batman" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +35,7 @@
     <author>Vertex42</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +563,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ \(dddd\)"/>
     <numFmt numFmtId="165" formatCode="m\ /\ d\ /\ yy"/>
@@ -752,7 +758,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,7 +771,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,6 +1029,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1046,24 +1070,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1671,22 +1677,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="61" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="57" customWidth="1"/>
-    <col min="4" max="5" width="11.140625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="5.5703125" style="2" customWidth="1"/>
-    <col min="9" max="99" width="2.42578125" style="2" customWidth="1"/>
-    <col min="100" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="6.83203125" style="61" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="57" customWidth="1"/>
+    <col min="4" max="5" width="11.1640625" style="2" customWidth="1"/>
+    <col min="6" max="8" width="5.5" style="2" customWidth="1"/>
+    <col min="9" max="99" width="2.5" style="2" customWidth="1"/>
+    <col min="100" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:99" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -1721,14 +1727,14 @@
       <c r="AD1" s="37"/>
       <c r="AE1" s="37"/>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
@@ -1756,15 +1762,15 @@
       <c r="AD2" s="37"/>
       <c r="AE2" s="37"/>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="B3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="74"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
@@ -1859,15 +1865,15 @@
       <c r="CT3" s="6"/>
       <c r="CU3" s="6"/>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="B4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="75">
+      <c r="C4" s="64"/>
+      <c r="D4" s="66">
         <v>42756</v>
       </c>
-      <c r="E4" s="75"/>
+      <c r="E4" s="66"/>
       <c r="I4" s="7">
         <f>D4-WEEKDAY(D4,1)+2+7*(D5-1)</f>
         <v>42751</v>
@@ -2233,280 +2239,280 @@
         <v>42841</v>
       </c>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B5" s="71" t="s">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="B5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="72"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="I5" s="63" t="str">
+      <c r="I5" s="68" t="str">
         <f>"Week "&amp;(I4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63" t="str">
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68" t="str">
         <f>"Week "&amp;(P4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63" t="str">
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68" t="str">
         <f>"Week "&amp;(W4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="63" t="str">
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68" t="str">
         <f>"Week "&amp;(AD4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AE5" s="63"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63" t="str">
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68" t="str">
         <f>"Week "&amp;(AK4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AL5" s="63"/>
-      <c r="AM5" s="63"/>
-      <c r="AN5" s="63"/>
-      <c r="AO5" s="63"/>
-      <c r="AP5" s="63"/>
-      <c r="AQ5" s="63"/>
-      <c r="AR5" s="63" t="str">
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="68"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="68"/>
+      <c r="AR5" s="68" t="str">
         <f>"Week "&amp;(AR4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AS5" s="63"/>
-      <c r="AT5" s="63"/>
-      <c r="AU5" s="63"/>
-      <c r="AV5" s="63"/>
-      <c r="AW5" s="63"/>
-      <c r="AX5" s="63"/>
-      <c r="AY5" s="63" t="str">
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="68"/>
+      <c r="AV5" s="68"/>
+      <c r="AW5" s="68"/>
+      <c r="AX5" s="68"/>
+      <c r="AY5" s="68" t="str">
         <f>"Week "&amp;(AY4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="63"/>
-      <c r="BB5" s="63"/>
-      <c r="BC5" s="63"/>
-      <c r="BD5" s="63"/>
-      <c r="BE5" s="63"/>
-      <c r="BF5" s="63" t="str">
+      <c r="AZ5" s="68"/>
+      <c r="BA5" s="68"/>
+      <c r="BB5" s="68"/>
+      <c r="BC5" s="68"/>
+      <c r="BD5" s="68"/>
+      <c r="BE5" s="68"/>
+      <c r="BF5" s="68" t="str">
         <f>"Week "&amp;(BF4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BG5" s="63"/>
-      <c r="BH5" s="63"/>
-      <c r="BI5" s="63"/>
-      <c r="BJ5" s="63"/>
-      <c r="BK5" s="63"/>
-      <c r="BL5" s="63"/>
-      <c r="BM5" s="63" t="str">
+      <c r="BG5" s="68"/>
+      <c r="BH5" s="68"/>
+      <c r="BI5" s="68"/>
+      <c r="BJ5" s="68"/>
+      <c r="BK5" s="68"/>
+      <c r="BL5" s="68"/>
+      <c r="BM5" s="68" t="str">
         <f>"Week "&amp;(BM4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BN5" s="63"/>
-      <c r="BO5" s="63"/>
-      <c r="BP5" s="63"/>
-      <c r="BQ5" s="63"/>
-      <c r="BR5" s="63"/>
-      <c r="BS5" s="63"/>
-      <c r="BT5" s="63" t="str">
+      <c r="BN5" s="68"/>
+      <c r="BO5" s="68"/>
+      <c r="BP5" s="68"/>
+      <c r="BQ5" s="68"/>
+      <c r="BR5" s="68"/>
+      <c r="BS5" s="68"/>
+      <c r="BT5" s="68" t="str">
         <f>"Week "&amp;(BT4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BU5" s="63"/>
-      <c r="BV5" s="63"/>
-      <c r="BW5" s="63"/>
-      <c r="BX5" s="63"/>
-      <c r="BY5" s="63"/>
-      <c r="BZ5" s="63"/>
-      <c r="CA5" s="63" t="str">
+      <c r="BU5" s="68"/>
+      <c r="BV5" s="68"/>
+      <c r="BW5" s="68"/>
+      <c r="BX5" s="68"/>
+      <c r="BY5" s="68"/>
+      <c r="BZ5" s="68"/>
+      <c r="CA5" s="68" t="str">
         <f>"Week "&amp;(CA4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CB5" s="63"/>
-      <c r="CC5" s="63"/>
-      <c r="CD5" s="63"/>
-      <c r="CE5" s="63"/>
-      <c r="CF5" s="63"/>
-      <c r="CG5" s="63"/>
-      <c r="CH5" s="63" t="str">
+      <c r="CB5" s="68"/>
+      <c r="CC5" s="68"/>
+      <c r="CD5" s="68"/>
+      <c r="CE5" s="68"/>
+      <c r="CF5" s="68"/>
+      <c r="CG5" s="68"/>
+      <c r="CH5" s="68" t="str">
         <f>"Week "&amp;(CH4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CI5" s="63"/>
-      <c r="CJ5" s="63"/>
-      <c r="CK5" s="63"/>
-      <c r="CL5" s="63"/>
-      <c r="CM5" s="63"/>
-      <c r="CN5" s="63"/>
-      <c r="CO5" s="65" t="str">
+      <c r="CI5" s="68"/>
+      <c r="CJ5" s="68"/>
+      <c r="CK5" s="68"/>
+      <c r="CL5" s="68"/>
+      <c r="CM5" s="68"/>
+      <c r="CN5" s="68"/>
+      <c r="CO5" s="70" t="str">
         <f>"Week "&amp;(CO4-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CP5" s="66"/>
-      <c r="CQ5" s="66"/>
-      <c r="CR5" s="66"/>
-      <c r="CS5" s="66"/>
-      <c r="CT5" s="66"/>
-      <c r="CU5" s="67"/>
+      <c r="CP5" s="71"/>
+      <c r="CQ5" s="71"/>
+      <c r="CR5" s="71"/>
+      <c r="CS5" s="71"/>
+      <c r="CT5" s="71"/>
+      <c r="CU5" s="72"/>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
-      <c r="I6" s="64">
+      <c r="I6" s="69">
         <f>I4</f>
         <v>42751</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64">
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69">
         <f>P4</f>
         <v>42758</v>
       </c>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64">
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69">
         <f>W4</f>
         <v>42765</v>
       </c>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64">
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69">
         <f>AD4</f>
         <v>42772</v>
       </c>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="64"/>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64">
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="69">
         <f>AK4</f>
         <v>42779</v>
       </c>
-      <c r="AL6" s="64"/>
-      <c r="AM6" s="64"/>
-      <c r="AN6" s="64"/>
-      <c r="AO6" s="64"/>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64">
+      <c r="AL6" s="69"/>
+      <c r="AM6" s="69"/>
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69">
         <f>AR4</f>
         <v>42786</v>
       </c>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="64"/>
-      <c r="AX6" s="64"/>
-      <c r="AY6" s="64">
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69">
         <f>AY4</f>
         <v>42793</v>
       </c>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="64"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="64">
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="69"/>
+      <c r="BF6" s="69">
         <f>BF4</f>
         <v>42800</v>
       </c>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="64"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="64">
+      <c r="BG6" s="69"/>
+      <c r="BH6" s="69"/>
+      <c r="BI6" s="69"/>
+      <c r="BJ6" s="69"/>
+      <c r="BK6" s="69"/>
+      <c r="BL6" s="69"/>
+      <c r="BM6" s="69">
         <f>BM4</f>
         <v>42807</v>
       </c>
-      <c r="BN6" s="64"/>
-      <c r="BO6" s="64"/>
-      <c r="BP6" s="64"/>
-      <c r="BQ6" s="64"/>
-      <c r="BR6" s="64"/>
-      <c r="BS6" s="64"/>
-      <c r="BT6" s="64">
+      <c r="BN6" s="69"/>
+      <c r="BO6" s="69"/>
+      <c r="BP6" s="69"/>
+      <c r="BQ6" s="69"/>
+      <c r="BR6" s="69"/>
+      <c r="BS6" s="69"/>
+      <c r="BT6" s="69">
         <f>BT4</f>
         <v>42814</v>
       </c>
-      <c r="BU6" s="64"/>
-      <c r="BV6" s="64"/>
-      <c r="BW6" s="64"/>
-      <c r="BX6" s="64"/>
-      <c r="BY6" s="64"/>
-      <c r="BZ6" s="64"/>
-      <c r="CA6" s="64">
+      <c r="BU6" s="69"/>
+      <c r="BV6" s="69"/>
+      <c r="BW6" s="69"/>
+      <c r="BX6" s="69"/>
+      <c r="BY6" s="69"/>
+      <c r="BZ6" s="69"/>
+      <c r="CA6" s="69">
         <f>CA4</f>
         <v>42821</v>
       </c>
-      <c r="CB6" s="64"/>
-      <c r="CC6" s="64"/>
-      <c r="CD6" s="64"/>
-      <c r="CE6" s="64"/>
-      <c r="CF6" s="64"/>
-      <c r="CG6" s="64"/>
-      <c r="CH6" s="64">
+      <c r="CB6" s="69"/>
+      <c r="CC6" s="69"/>
+      <c r="CD6" s="69"/>
+      <c r="CE6" s="69"/>
+      <c r="CF6" s="69"/>
+      <c r="CG6" s="69"/>
+      <c r="CH6" s="69">
         <f>CH4</f>
         <v>42828</v>
       </c>
-      <c r="CI6" s="64"/>
-      <c r="CJ6" s="64"/>
-      <c r="CK6" s="64"/>
-      <c r="CL6" s="64"/>
-      <c r="CM6" s="64"/>
-      <c r="CN6" s="64"/>
-      <c r="CO6" s="68">
+      <c r="CI6" s="69"/>
+      <c r="CJ6" s="69"/>
+      <c r="CK6" s="69"/>
+      <c r="CL6" s="69"/>
+      <c r="CM6" s="69"/>
+      <c r="CN6" s="69"/>
+      <c r="CO6" s="73">
         <f>CO4</f>
         <v>42835</v>
       </c>
-      <c r="CP6" s="69"/>
-      <c r="CQ6" s="69"/>
-      <c r="CR6" s="69"/>
-      <c r="CS6" s="69"/>
-      <c r="CT6" s="69"/>
-      <c r="CU6" s="70"/>
+      <c r="CP6" s="74"/>
+      <c r="CQ6" s="74"/>
+      <c r="CR6" s="74"/>
+      <c r="CS6" s="74"/>
+      <c r="CT6" s="74"/>
+      <c r="CU6" s="75"/>
     </row>
-    <row r="7" spans="1:99" s="15" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:99" s="15" customFormat="1" ht="25" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="s">
         <v>6</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:99" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:99" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A8,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A8,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A8,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A8,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A8,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -3001,7 +3007,7 @@
       <c r="CT8" s="23"/>
       <c r="CU8" s="23"/>
     </row>
-    <row r="9" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="str">
         <f t="shared" ref="A9:A12" ca="1" si="49">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A9,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))),OFFSET(A9,-1,0,1,1)&amp;".1",LEFT(OFFSET(A9,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A9,-1,0,1,1),LEN(OFFSET(A9,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A9,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -3121,7 +3127,7 @@
       <c r="CT9" s="23"/>
       <c r="CU9" s="23"/>
     </row>
-    <row r="10" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="str">
         <f t="shared" ca="1" si="49"/>
         <v>1.2</v>
@@ -3241,7 +3247,7 @@
       <c r="CT10" s="23"/>
       <c r="CU10" s="23"/>
     </row>
-    <row r="11" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="str">
         <f t="shared" ca="1" si="49"/>
         <v>1.3</v>
@@ -3361,7 +3367,7 @@
       <c r="CT11" s="23"/>
       <c r="CU11" s="23"/>
     </row>
-    <row r="12" spans="1:99" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="str">
         <f t="shared" ca="1" si="49"/>
         <v>1.4</v>
@@ -3480,7 +3486,7 @@
       <c r="CT12" s="23"/>
       <c r="CU12" s="23"/>
     </row>
-    <row r="13" spans="1:99" s="26" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:99" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
       <c r="C13" s="46"/>
@@ -3581,7 +3587,7 @@
       <c r="CT13" s="23"/>
       <c r="CU13" s="23"/>
     </row>
-    <row r="14" spans="1:99" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:99" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>2</v>
       </c>
@@ -3685,7 +3691,7 @@
       <c r="CT14" s="23"/>
       <c r="CU14" s="23"/>
     </row>
-    <row r="15" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="str">
         <f t="shared" ref="A15:A19" ca="1" si="51">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A15,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1))),OFFSET(A15,-1,0,1,1)&amp;".1",LEFT(OFFSET(A15,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A15,-1,0,1,1),LEN(OFFSET(A15,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A15,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -3804,7 +3810,7 @@
       <c r="CT15" s="23"/>
       <c r="CU15" s="23"/>
     </row>
-    <row r="16" spans="1:99" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:99" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="str">
         <f t="shared" ca="1" si="51"/>
         <v>2.2</v>
@@ -3923,7 +3929,7 @@
       <c r="CT16" s="23"/>
       <c r="CU16" s="23"/>
     </row>
-    <row r="17" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" s="24" t="str">
         <f t="shared" ca="1" si="51"/>
         <v>2.3</v>
@@ -4043,7 +4049,7 @@
       <c r="CT17" s="23"/>
       <c r="CU17" s="23"/>
     </row>
-    <row r="18" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>2.4</v>
       </c>
@@ -4160,7 +4166,7 @@
       <c r="CT18" s="23"/>
       <c r="CU18" s="23"/>
     </row>
-    <row r="19" spans="1:99" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:99" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" s="24" t="str">
         <f t="shared" ca="1" si="51"/>
         <v>2.5</v>
@@ -4278,7 +4284,7 @@
       <c r="CT19" s="23"/>
       <c r="CU19" s="23"/>
     </row>
-    <row r="20" spans="1:99" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:99" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>2.6</v>
       </c>
@@ -4395,7 +4401,7 @@
       <c r="CT20" s="23"/>
       <c r="CU20" s="23"/>
     </row>
-    <row r="21" spans="1:99" s="26" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:99" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" s="24"/>
       <c r="B21" s="25"/>
       <c r="C21" s="46"/>
@@ -4496,7 +4502,7 @@
       <c r="CT21" s="23"/>
       <c r="CU21" s="23"/>
     </row>
-    <row r="22" spans="1:99" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:99" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>3</v>
       </c>
@@ -4600,7 +4606,7 @@
       <c r="CT22" s="23"/>
       <c r="CU22" s="23"/>
     </row>
-    <row r="23" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="str">
         <f t="shared" ref="A23:A26" ca="1" si="54">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A23,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))),OFFSET(A23,-1,0,1,1)&amp;".1",LEFT(OFFSET(A23,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A23,-1,0,1,1),LEN(OFFSET(A23,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A23,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -4719,7 +4725,7 @@
       <c r="CT23" s="23"/>
       <c r="CU23" s="23"/>
     </row>
-    <row r="24" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="str">
         <f t="shared" ca="1" si="54"/>
         <v>3.2</v>
@@ -4728,7 +4734,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="27">
         <v>42781</v>
@@ -4838,7 +4844,7 @@
       <c r="CT24" s="23"/>
       <c r="CU24" s="23"/>
     </row>
-    <row r="25" spans="1:99" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:99" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="str">
         <f t="shared" ca="1" si="54"/>
         <v>3.3</v>
@@ -4847,7 +4853,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25" s="27">
         <v>42781</v>
@@ -4957,7 +4963,7 @@
       <c r="CT25" s="23"/>
       <c r="CU25" s="23"/>
     </row>
-    <row r="26" spans="1:99" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="str">
         <f t="shared" ca="1" si="54"/>
         <v>3.4</v>
@@ -5076,7 +5082,7 @@
       <c r="CT26" s="23"/>
       <c r="CU26" s="23"/>
     </row>
-    <row r="27" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>3.5</v>
       </c>
@@ -5194,7 +5200,7 @@
       <c r="CT27" s="23"/>
       <c r="CU27" s="23"/>
     </row>
-    <row r="28" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>3.6</v>
       </c>
@@ -5312,7 +5318,7 @@
       <c r="CT28" s="23"/>
       <c r="CU28" s="23"/>
     </row>
-    <row r="29" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>3.7</v>
       </c>
@@ -5430,7 +5436,7 @@
       <c r="CT29" s="23"/>
       <c r="CU29" s="23"/>
     </row>
-    <row r="30" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>3.8</v>
       </c>
@@ -5548,10 +5554,10 @@
       <c r="CT30" s="23"/>
       <c r="CU30" s="23"/>
     </row>
-    <row r="31" spans="1:99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="58"/>
     </row>
-    <row r="32" spans="1:99" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:99" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" s="16">
         <v>4</v>
       </c>
@@ -5655,7 +5661,7 @@
       <c r="CT32" s="23"/>
       <c r="CU32" s="23"/>
     </row>
-    <row r="33" spans="1:99" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A33" s="24" t="str">
         <f t="shared" ref="A33:A36" ca="1" si="56">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A33,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))),OFFSET(A33,-1,0,1,1)&amp;".1",LEFT(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A33,-1,0,1,1),LEN(OFFSET(A33,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -5768,7 +5774,7 @@
       <c r="CT33" s="23"/>
       <c r="CU33" s="23"/>
     </row>
-    <row r="34" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A34" s="24" t="str">
         <f t="shared" ca="1" si="56"/>
         <v>4.2</v>
@@ -5883,7 +5889,7 @@
       <c r="CT34" s="23"/>
       <c r="CU34" s="23"/>
     </row>
-    <row r="35" spans="1:99" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:99" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="str">
         <f t="shared" ca="1" si="56"/>
         <v>4.3</v>
@@ -5996,7 +6002,7 @@
       <c r="CT35" s="23"/>
       <c r="CU35" s="23"/>
     </row>
-    <row r="36" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A36" s="24" t="str">
         <f t="shared" ca="1" si="56"/>
         <v>4.4</v>
@@ -6109,7 +6115,7 @@
       <c r="CT36" s="23"/>
       <c r="CU36" s="23"/>
     </row>
-    <row r="37" spans="1:99" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:99" s="34" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A37" s="24">
         <v>4.5</v>
       </c>
@@ -6223,7 +6229,7 @@
       <c r="CT37" s="23"/>
       <c r="CU37" s="23"/>
     </row>
-    <row r="38" spans="1:99" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:99" s="34" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A38" s="39">
         <v>4.5999999999999996</v>
       </c>
@@ -6337,7 +6343,7 @@
       <c r="CT38" s="23"/>
       <c r="CU38" s="23"/>
     </row>
-    <row r="39" spans="1:99" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:99" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="62">
         <v>4.7</v>
       </c>
@@ -6451,7 +6457,7 @@
       <c r="CT39" s="23"/>
       <c r="CU39" s="23"/>
     </row>
-    <row r="40" spans="1:99" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:99" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="49">
         <v>4.8</v>
       </c>
@@ -6565,7 +6571,7 @@
       <c r="CT40" s="23"/>
       <c r="CU40" s="23"/>
     </row>
-    <row r="41" spans="1:99" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:99" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="62"/>
       <c r="B41" s="52"/>
       <c r="C41" s="58"/>
@@ -6666,7 +6672,7 @@
       <c r="CT41" s="23"/>
       <c r="CU41" s="23"/>
     </row>
-    <row r="42" spans="1:99" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:99" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A42" s="16">
         <v>5</v>
       </c>
@@ -6770,7 +6776,7 @@
       <c r="CT42" s="23"/>
       <c r="CU42" s="23"/>
     </row>
-    <row r="43" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A43" s="24">
         <v>5.0999999999999996</v>
       </c>
@@ -6883,7 +6889,7 @@
       <c r="CT43" s="23"/>
       <c r="CU43" s="23"/>
     </row>
-    <row r="44" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A44" s="24">
         <v>5.2</v>
       </c>
@@ -6996,7 +7002,7 @@
       <c r="CT44" s="23"/>
       <c r="CU44" s="23"/>
     </row>
-    <row r="45" spans="1:99" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:99" s="34" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A45" s="24">
         <v>5.3</v>
       </c>
@@ -7110,7 +7116,7 @@
       <c r="CT45" s="23"/>
       <c r="CU45" s="23"/>
     </row>
-    <row r="46" spans="1:99" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:99" s="34" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A46" s="39">
         <v>5.4</v>
       </c>
@@ -7224,7 +7230,7 @@
       <c r="CT46" s="23"/>
       <c r="CU46" s="23"/>
     </row>
-    <row r="47" spans="1:99" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:99" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="62">
         <v>5.5</v>
       </c>
@@ -7338,7 +7344,7 @@
       <c r="CT47" s="23"/>
       <c r="CU47" s="23"/>
     </row>
-    <row r="48" spans="1:99" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:99" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="62"/>
       <c r="B48" s="52"/>
       <c r="C48" s="58"/>
@@ -7439,7 +7445,7 @@
       <c r="CT48" s="23"/>
       <c r="CU48" s="23"/>
     </row>
-    <row r="49" spans="1:99" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:99" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A49" s="16">
         <v>6</v>
       </c>
@@ -7543,7 +7549,7 @@
       <c r="CT49" s="23"/>
       <c r="CU49" s="23"/>
     </row>
-    <row r="50" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="str">
         <f t="shared" ref="A50:A52" ca="1" si="59">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A50,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))),OFFSET(A50,-1,0,1,1)&amp;".1",LEFT(OFFSET(A50,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A50,-1,0,1,1),LEN(OFFSET(A50,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A50,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>6.1</v>
@@ -7658,7 +7664,7 @@
       <c r="CT50" s="23"/>
       <c r="CU50" s="23"/>
     </row>
-    <row r="51" spans="1:99" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:99" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A51" s="24" t="str">
         <f t="shared" ca="1" si="59"/>
         <v>6.2</v>
@@ -7771,7 +7777,7 @@
       <c r="CT51" s="23"/>
       <c r="CU51" s="23"/>
     </row>
-    <row r="52" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A52" s="24" t="str">
         <f t="shared" ca="1" si="59"/>
         <v>6.3</v>
@@ -7884,7 +7890,7 @@
       <c r="CT52" s="23"/>
       <c r="CU52" s="23"/>
     </row>
-    <row r="53" spans="1:99" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:99" s="34" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" s="24">
         <v>6.4</v>
       </c>
@@ -7998,7 +8004,7 @@
       <c r="CT53" s="23"/>
       <c r="CU53" s="23"/>
     </row>
-    <row r="54" spans="1:99" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:99" s="34" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A54" s="39">
         <v>6.5</v>
       </c>
@@ -8112,7 +8118,7 @@
       <c r="CT54" s="23"/>
       <c r="CU54" s="23"/>
     </row>
-    <row r="55" spans="1:99" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:99" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="62">
         <v>6.6</v>
       </c>
@@ -8226,7 +8232,7 @@
       <c r="CT55" s="23"/>
       <c r="CU55" s="23"/>
     </row>
-    <row r="56" spans="1:99" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:99" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="49">
         <v>6.7</v>
       </c>
@@ -8340,7 +8346,7 @@
       <c r="CT56" s="23"/>
       <c r="CU56" s="23"/>
     </row>
-    <row r="57" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A57" s="61">
         <v>6.8</v>
       </c>
@@ -8348,7 +8354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:99" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:99" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A59" s="16">
         <v>7</v>
       </c>
@@ -8452,7 +8458,7 @@
       <c r="CT59" s="23"/>
       <c r="CU59" s="23"/>
     </row>
-    <row r="60" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A60" s="24" t="str">
         <f t="shared" ref="A60:A63" ca="1" si="61">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A60,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A60,-1,0,1,1),".","`",1))),OFFSET(A60,-1,0,1,1)&amp;".1",LEFT(OFFSET(A60,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A60,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A60,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A60,-1,0,1,1),LEN(OFFSET(A60,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A60,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A60,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A60,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A60,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A60,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>7.1</v>
@@ -8565,7 +8571,7 @@
       <c r="CT60" s="23"/>
       <c r="CU60" s="23"/>
     </row>
-    <row r="61" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A61" s="24" t="str">
         <f t="shared" ca="1" si="61"/>
         <v>7.2</v>
@@ -8678,7 +8684,7 @@
       <c r="CT61" s="23"/>
       <c r="CU61" s="23"/>
     </row>
-    <row r="62" spans="1:99" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:99" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A62" s="24" t="str">
         <f t="shared" ca="1" si="61"/>
         <v>7.3</v>
@@ -8791,7 +8797,7 @@
       <c r="CT62" s="23"/>
       <c r="CU62" s="23"/>
     </row>
-    <row r="63" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:99" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A63" s="24" t="str">
         <f t="shared" ca="1" si="61"/>
         <v>7.4</v>
@@ -8904,7 +8910,7 @@
       <c r="CT63" s="23"/>
       <c r="CU63" s="23"/>
     </row>
-    <row r="64" spans="1:99" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:99" s="34" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A64" s="24">
         <v>7.5</v>
       </c>
@@ -9016,7 +9022,7 @@
       <c r="CT64" s="23"/>
       <c r="CU64" s="23"/>
     </row>
-    <row r="65" spans="1:99" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:99" s="34" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A65" s="39">
         <v>7.6</v>
       </c>
@@ -9130,7 +9136,7 @@
       <c r="CT65" s="23"/>
       <c r="CU65" s="23"/>
     </row>
-    <row r="66" spans="1:99" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:99" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="62">
         <v>7.7</v>
       </c>
@@ -9244,7 +9250,7 @@
       <c r="CT66" s="23"/>
       <c r="CU66" s="23"/>
     </row>
-    <row r="67" spans="1:99" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:99" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="49">
         <v>7.8</v>
       </c>
@@ -9358,7 +9364,7 @@
       <c r="CT67" s="23"/>
       <c r="CU67" s="23"/>
     </row>
-    <row r="68" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A68" s="61">
         <v>7.9</v>
       </c>
@@ -9377,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A69" s="61" t="s">
         <v>61</v>
       </c>
@@ -9396,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A70" s="61" t="s">
         <v>62</v>
       </c>
@@ -9417,16 +9423,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="CH5:CN5"/>
+    <mergeCell ref="CH6:CN6"/>
+    <mergeCell ref="CO5:CU5"/>
+    <mergeCell ref="CO6:CU6"/>
+    <mergeCell ref="BM5:BS5"/>
+    <mergeCell ref="BM6:BS6"/>
+    <mergeCell ref="BT5:BZ5"/>
+    <mergeCell ref="BT6:BZ6"/>
+    <mergeCell ref="CA5:CG5"/>
+    <mergeCell ref="CA6:CG6"/>
     <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
@@ -9439,16 +9445,16 @@
     <mergeCell ref="AY6:BE6"/>
     <mergeCell ref="AK5:AQ5"/>
     <mergeCell ref="BF6:BL6"/>
-    <mergeCell ref="CH5:CN5"/>
-    <mergeCell ref="CH6:CN6"/>
-    <mergeCell ref="CO5:CU5"/>
-    <mergeCell ref="CO6:CU6"/>
-    <mergeCell ref="BM5:BS5"/>
-    <mergeCell ref="BM6:BS6"/>
-    <mergeCell ref="BT5:BZ5"/>
-    <mergeCell ref="BT6:BZ6"/>
-    <mergeCell ref="CA5:CG5"/>
-    <mergeCell ref="CA6:CG6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="G42:G44 G49:G52 G8:G36">
     <cfRule type="dataBar" priority="41">
